--- a/amplify/data/develop/local/editor_sticker_local_category.xlsx
+++ b/amplify/data/develop/local/editor_sticker_local_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,11 +491,6 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>updatedAt</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>upload</t>
         </is>
       </c>
@@ -540,20 +535,15 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/tab/brasilcarnival_202204.png</t>
+          <t>sticker/tab/previews/brasilcarnival_202204.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>b6f0ee36-cbc4-11ec-86fa-acde48001122</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2022-05-05 00:10:28</t>
-        </is>
-      </c>
-      <c r="M2" t="b">
+          <t>31c626b4-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -569,7 +559,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -597,20 +587,15 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/tab/eid_202204.png</t>
+          <t>sticker/tab/previews/eid_202204.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>b6f0f070-cbc4-11ec-86fa-acde48001122</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2022-05-05 00:10:28</t>
-        </is>
-      </c>
-      <c r="M3" t="b">
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -626,7 +611,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -654,20 +639,15 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/tab/ily_202204.png</t>
+          <t>sticker/tab/previews/ily_202204.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>b6f0f0fc-cbc4-11ec-86fa-acde48001122</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2022-05-05 00:10:28</t>
-        </is>
-      </c>
-      <c r="M4" t="b">
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -683,7 +663,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -711,20 +691,15 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/tab/like_202204.png</t>
+          <t>sticker/tab/previews/like_202204.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>b6f0f16a-cbc4-11ec-86fa-acde48001122</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2022-05-05 00:10:28</t>
-        </is>
-      </c>
-      <c r="M5" t="b">
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -740,7 +715,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -768,20 +743,15 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/tab/spring_202204.png</t>
+          <t>sticker/tab/previews/spring_202204.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>b6f0f1c4-cbc4-11ec-86fa-acde48001122</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2022-05-05 00:10:28</t>
-        </is>
-      </c>
-      <c r="M6" t="b">
+          <t>31c628c6-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -797,7 +767,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -825,20 +795,15 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/tab/subscribe_202204.png</t>
+          <t>sticker/tab/previews/subscribe_202204.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2022-05-05 00:10:28</t>
-        </is>
-      </c>
-      <c r="M7" t="b">
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>

--- a/amplify/data/develop/local/editor_sticker_local_category.xlsx
+++ b/amplify/data/develop/local/editor_sticker_local_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>upload</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>primaryId</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,7 +548,10 @@
           <t>31c626b4-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
-      <c r="L2" t="b">
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -559,7 +567,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>6</v>
@@ -595,8 +603,11 @@
           <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -647,8 +658,11 @@
           <t>31c62876-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -663,7 +677,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
@@ -699,8 +713,11 @@
           <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
-      <c r="L5" t="b">
-        <v>1</v>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -751,8 +768,11 @@
           <t>31c628c6-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
-      <c r="L6" t="b">
-        <v>1</v>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -767,7 +787,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -803,8 +823,506 @@
           <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
-      <c r="L7" t="b">
-        <v>1</v>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>appicons_202205</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>appicons_202205.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>appicons</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>appicons_202205</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>sticker_tab/appicons_202205.png</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/appicons_202205.png</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>30dea41a-cde4-11ec-99bb-acde48001122</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>arrows_202205</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>arrows_202205.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>arrows</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>arrows_202205</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>sticker_tab/arrows_202205.png</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/arrows_202205.png</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>30dea442-cde4-11ec-99bb-acde48001122</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>easter_202205</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>easter_202205.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>easter</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>easter_202205</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>sticker_tab/easter_202205.png</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/easter_202205.png</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>30dea46a-cde4-11ec-99bb-acde48001122</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>effects_202205</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>effects_202205.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>effects</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>effects_202205</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>sticker_tab/effects_202205.png</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/effects_202205.png</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>30dea492-cde4-11ec-99bb-acde48001122</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>family_202205</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>family_202205.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>family_202205</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>sticker_tab/family_202205.png</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/family_202205.png</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>30dea4ba-cde4-11ec-99bb-acde48001122</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>food_202205</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>food_202205.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>food_202205</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>sticker_tab/food_202205.png</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/food_202205.png</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>30dea514-cde4-11ec-99bb-acde48001122</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>music_202205</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>music_202205.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>music</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>music_202205</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>sticker_tab/music_202205.png</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/music_202205.png</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>30dea53c-cde4-11ec-99bb-acde48001122</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>social_202205</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>social_202205.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>social</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>social_202205</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>sticker_tab/social_202205.png</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/social_202205.png</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>30dea564-cde4-11ec-99bb-acde48001122</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>weather_202205</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>weather_202205.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>weather</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>weather_202205</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>sticker_tab/weather_202205.png</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/weather_202205.png</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>30dea58c-cde4-11ec-99bb-acde48001122</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/amplify/data/develop/local/editor_sticker_local_category.xlsx
+++ b/amplify/data/develop/local/editor_sticker_local_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,48 +481,43 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>primaryId</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>coverUrl</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>id</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>upload</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>primaryId</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>brasilcarnival_202204</t>
+          <t>subscribe_202204</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>brasilcarnival_202204.png</t>
+          <t>subscribe_202204.png</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>brasilcarnival</t>
+          <t>subscribe</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -530,99 +525,93 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>brasilcarnival_202204</t>
+          <t>subscribe_202204</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sticker_tab/brasilcarnival_202204.png</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/brasilcarnival_202204.png</t>
-        </is>
+          <t>sticker_tab/subscribe_202204.png</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>31c626b4-cc59-11ec-be2d-acde48001122</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
+          <t>sticker/tab/previews/subscribe_202204.png</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>9c8d9864-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>eid_202204</t>
+          <t>appicons_202205</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eid_202204.png</t>
+          <t>appicons_202205.png</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>eid</t>
+          <t>appicons</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>202204</v>
+        <v>202205</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>eid_202204</t>
+          <t>appicons_202205</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sticker_tab/eid_202204.png</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/eid_202204.png</t>
-        </is>
+          <t>sticker_tab/appicons_202205.png</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
+          <t>sticker/tab/previews/appicons_202205.png</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>9c8d9a76-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ily_202204</t>
+          <t>arrows_202205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ily_202204.png</t>
+          <t>arrows_202205.png</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -632,62 +621,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ily</t>
+          <t>arrows</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>202204</v>
+        <v>202205</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ily_202204</t>
+          <t>arrows_202205</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sticker_tab/ily_202204.png</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/ily_202204.png</t>
-        </is>
+          <t>sticker_tab/arrows_202205.png</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
+          <t>sticker/tab/previews/arrows_202205.png</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>9c8d9ab2-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>like_202204</t>
+          <t>brasilcarnival_202204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>like_202204.png</t>
+          <t>brasilcarnival_202204.png</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>brasilcarnival</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -695,219 +681,207 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>like_202204</t>
+          <t>brasilcarnival_202204</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sticker_tab/like_202204.png</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/like_202204.png</t>
-        </is>
+          <t>sticker_tab/brasilcarnival_202204.png</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
+          <t>sticker/tab/previews/brasilcarnival_202204.png</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>9c8d9ae4-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>spring_202204</t>
+          <t>easter_202205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>spring_202204.png</t>
+          <t>easter_202205.png</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>easter</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>202205</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>easter_202205</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>sticker_tab/easter_202205.png</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>spring</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>202204</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>spring_202204</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>sticker_tab/spring_202204.png</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/spring_202204.png</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>31c628c6-cc59-11ec-be2d-acde48001122</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
+          <t>sticker/tab/previews/easter_202205.png</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>9c8d9b3e-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>subscribe_202204</t>
+          <t>effects_202205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>subscribe_202204.png</t>
+          <t>effects_202205.png</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>subscribe</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>202204</v>
+        <v>202205</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>subscribe_202204</t>
+          <t>effects_202205</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sticker_tab/subscribe_202204.png</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/subscribe_202204.png</t>
-        </is>
+          <t>sticker_tab/effects_202205.png</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6</v>
+          <t>sticker/tab/previews/effects_202205.png</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>9c8d9b66-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>appicons_202205</t>
+          <t>eid_202204</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>appicons_202205.png</t>
+          <t>eid_202204.png</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>sticker_tab/eid_202204.png</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>7</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>appicons</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>202205</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>appicons_202205</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>sticker_tab/appicons_202205.png</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/appicons_202205.png</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>30dea41a-cde4-11ec-99bb-acde48001122</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7</v>
+          <t>sticker/tab/previews/eid_202204.png</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>9c8d9b8e-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>arrows_202205</t>
+          <t>family_202205</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arrows_202205.png</t>
+          <t>family_202205.png</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>arrows</t>
+          <t>family</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -915,54 +889,51 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>arrows_202205</t>
+          <t>family_202205</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sticker_tab/arrows_202205.png</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/arrows_202205.png</t>
-        </is>
+          <t>sticker_tab/family_202205.png</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>30dea442-cde4-11ec-99bb-acde48001122</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>8</v>
+          <t>sticker/tab/previews/family_202205.png</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>9c8d9bb6-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>easter_202205</t>
+          <t>food_202205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>easter_202205.png</t>
+          <t>food_202205.png</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>easter</t>
+          <t>food</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -970,164 +941,155 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>easter_202205</t>
+          <t>food_202205</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sticker_tab/easter_202205.png</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/easter_202205.png</t>
-        </is>
+          <t>sticker_tab/food_202205.png</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>9</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>30dea46a-cde4-11ec-99bb-acde48001122</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9</v>
+          <t>sticker/tab/previews/food_202205.png</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>9c8d9bde-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>effects_202205</t>
+          <t>ily_202204</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>effects_202205.png</t>
+          <t>ily_202204.png</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>sticker_tab/ily_202204.png</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>202205</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>effects_202205</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>sticker_tab/effects_202205.png</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/effects_202205.png</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>30dea492-cde4-11ec-99bb-acde48001122</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>10</v>
+          <t>sticker/tab/previews/ily_202204.png</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>9c8d9c06-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>family_202205</t>
+          <t>like_202204</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>family_202205.png</t>
+          <t>like_202204.png</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>sticker_tab/like_202204.png</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>202205</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>family_202205</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>sticker_tab/family_202205.png</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/family_202205.png</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>30dea4ba-cde4-11ec-99bb-acde48001122</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>11</v>
+          <t>sticker/tab/previews/like_202204.png</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>9c8d9c2e-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>food_202205</t>
+          <t>music_202205</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>food_202205.png</t>
+          <t>music_202205.png</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>music</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1135,54 +1097,51 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>food_202205</t>
+          <t>music_202205</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sticker_tab/food_202205.png</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/food_202205.png</t>
-        </is>
+          <t>sticker_tab/music_202205.png</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>12</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>30dea514-cde4-11ec-99bb-acde48001122</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>12</v>
+          <t>sticker/tab/previews/music_202205.png</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>9c8d9c6a-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>music_202205</t>
+          <t>social_202205</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>music_202205.png</t>
+          <t>social_202205.png</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>social</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1190,84 +1149,78 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>music_202205</t>
+          <t>social_202205</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sticker_tab/music_202205.png</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/music_202205.png</t>
-        </is>
+          <t>sticker_tab/social_202205.png</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>13</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>30dea53c-cde4-11ec-99bb-acde48001122</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>13</v>
+          <t>sticker/tab/previews/social_202205.png</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>9c8d9c92-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>social_202205</t>
+          <t>spring_202204</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>social_202205.png</t>
+          <t>spring_202204.png</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>spring_202204</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>sticker_tab/spring_202204.png</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>14</v>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>social</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>202205</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>social_202205</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>sticker_tab/social_202205.png</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>sticker/tab/previews/social_202205.png</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>30dea564-cde4-11ec-99bb-acde48001122</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>14</v>
+          <t>sticker/tab/previews/spring_202204.png</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>9c8d9cba-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1285,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1308,21 +1261,18 @@
           <t>sticker_tab/weather_202205.png</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="n">
+        <v>15</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>sticker/tab/previews/weather_202205.png</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>30dea58c-cde4-11ec-99bb-acde48001122</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>15</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>9c8d9ce2-cf43-11ec-823f-acde48001122</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/amplify/data/develop/local/editor_sticker_local_category.xlsx
+++ b/amplify/data/develop/local/editor_sticker_local_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>id</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>upload</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -546,6 +551,9 @@
           <t>9c8d9864-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -598,6 +606,9 @@
           <t>9c8d9a76-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -650,6 +661,9 @@
           <t>9c8d9ab2-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -702,6 +716,9 @@
           <t>9c8d9ae4-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -754,6 +771,9 @@
           <t>9c8d9b3e-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -806,6 +826,9 @@
           <t>9c8d9b66-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -858,6 +881,9 @@
           <t>9c8d9b8e-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -910,6 +936,9 @@
           <t>9c8d9bb6-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -962,6 +991,9 @@
           <t>9c8d9bde-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1014,6 +1046,9 @@
           <t>9c8d9c06-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1066,6 +1101,9 @@
           <t>9c8d9c2e-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1118,6 +1156,9 @@
           <t>9c8d9c6a-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1170,6 +1211,9 @@
           <t>9c8d9c92-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1222,6 +1266,9 @@
           <t>9c8d9cba-cf43-11ec-823f-acde48001122</t>
         </is>
       </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1273,6 +1320,9 @@
         <is>
           <t>9c8d9ce2-cf43-11ec-823f-acde48001122</t>
         </is>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/amplify/data/develop/local/editor_sticker_local_category.xlsx
+++ b/amplify/data/develop/local/editor_sticker_local_category.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1557,13 +1557,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1667,13 +1667,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1762,6 +1762,611 @@
         </is>
       </c>
       <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>baking_202207.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>sticker_tab/baking_202207.png</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>24</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/baking_202207.png</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>e1b1b52a-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>buzzword_202207.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>sticker_tab/buzzword_202207.png</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>25</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/buzzword_202207.png</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>e1b1b55c-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cartoon_202207.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>sticker_tab/cartoon_202207.png</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>26</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/cartoon_202207.png</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>e1b1b58e-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>sticker_tab/emoji_animation_202207.png</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>27</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/emoji_animation_202207.png</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>e1b1b5b6-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>independenceday_202207</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>independenceday_202207.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>independenceday</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>independenced</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>sticker_tab/independenceday_202207.png</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>28</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/independenceday_202207.png</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>e1b1b5f2-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>shopping_202207.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>sticker_tab/shopping_202207.png</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>29</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/shopping_202207.png</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>e1b1b624-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>birthday_202206.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>sticker_tab/birthday_202206.png</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>30</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/birthday_202206.png</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>22f8bb5a-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>thuglife_202206.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>sticker_tab/thuglife_202206.png</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>31</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/thuglife_202206.png</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>22f8bba0-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>neon_202206.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>sticker_tab/neon_202206.png</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>32</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/neon_202206.png</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>22f8bbc8-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>100</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>sticker_tab/emoji_alt_202207.png</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>33</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/emoji_alt_202207.png</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>22f8bbfa-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>effectscolor_202208.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>sticker_tab/effectscolor_202208.png</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>34</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>sticker/tab/previews/effectscolor_202208.png</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>fa6825e0-1f8d-11ed-a7a3-acde48001122</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
